--- a/dataset/sql_datasets/coach.xlsx
+++ b/dataset/sql_datasets/coach.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E55F7C-0A0B-428D-8E10-12D640349AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FC016-D073-4856-BED2-10B41547D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29295" windowHeight="16905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>idParticipant</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,27 +341,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A528"/>
+  <dimension ref="A1:A527"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A528"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>6018</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6018</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6019</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -375,12 +371,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6020</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6021</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -390,7 +386,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6022</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -400,7 +396,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6023</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
@@ -410,57 +406,57 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6024</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6025</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6026</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6027</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6028</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>6029</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6030</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6031</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6032</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6033</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6034</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
@@ -470,7 +466,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6035</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
@@ -480,7 +476,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>6036</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
@@ -490,7 +486,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>6037</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -500,12 +496,12 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6038</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>6039</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -515,22 +511,22 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6040</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>6041</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6042</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>6043</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -540,7 +536,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>6044</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -550,7 +546,7 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6045</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -560,27 +556,27 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6046</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6047</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6048</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6049</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6050</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -590,7 +586,7 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>6051</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -600,32 +596,32 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>6052</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>6053</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>6054</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>6055</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>6056</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>6057</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -635,22 +631,22 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>6058</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>6059</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6060</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>6061</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -660,17 +656,17 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6062</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6063</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6064</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -680,12 +676,12 @@
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6065</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6066</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -695,22 +691,22 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6067</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6068</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>6069</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>6070</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
@@ -720,12 +716,12 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6071</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6072</v>
+        <v>6073</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -735,17 +731,17 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6073</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6074</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6075</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
@@ -755,7 +751,7 @@
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6076</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -765,22 +761,22 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6077</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6078</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6079</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6080</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -790,7 +786,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6081</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -800,12 +796,12 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6082</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6083</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -815,12 +811,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6084</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6085</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -830,22 +826,22 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6086</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6087</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6088</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6089</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -855,12 +851,12 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6090</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6091</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
@@ -870,52 +866,52 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6092</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6093</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6094</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6095</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6096</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6097</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6098</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6099</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6100</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>6101</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -925,17 +921,17 @@
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>6102</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6103</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6104</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
@@ -945,12 +941,12 @@
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6105</v>
+        <v>6106</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6106</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
@@ -960,7 +956,7 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6107</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
@@ -970,27 +966,27 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6108</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>6109</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6110</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6111</v>
+        <v>6112</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6112</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -1000,7 +996,7 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6113</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
@@ -1010,7 +1006,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6114</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -1020,17 +1016,17 @@
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6115</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6116</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6117</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -1040,17 +1036,17 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6118</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6119</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6120</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
@@ -1060,17 +1056,17 @@
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6121</v>
+        <v>6122</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6122</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6123</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -1080,7 +1076,7 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6124</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
@@ -1090,32 +1086,32 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6125</v>
+        <v>6126</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6126</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6127</v>
+        <v>6128</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6128</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6129</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6130</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
@@ -1125,32 +1121,32 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6131</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6132</v>
+        <v>6133</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6133</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6134</v>
+        <v>6135</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>6135</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6136</v>
+        <v>6137</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -1160,7 +1156,7 @@
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6137</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -1170,22 +1166,22 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6138</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6139</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6140</v>
+        <v>6141</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6141</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
@@ -1195,12 +1191,12 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6142</v>
+        <v>6143</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>6143</v>
+        <v>6144</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
@@ -1210,12 +1206,12 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>6144</v>
+        <v>6145</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6145</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
@@ -1225,17 +1221,17 @@
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>6146</v>
+        <v>6147</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6147</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6148</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
@@ -1245,17 +1241,17 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>6149</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6150</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>6151</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -1265,12 +1261,12 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>6152</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>6153</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
@@ -1280,42 +1276,42 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>6154</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>6155</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>6156</v>
+        <v>6157</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>6157</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>6158</v>
+        <v>6159</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>6159</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>6160</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>6161</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
@@ -1325,7 +1321,7 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>6162</v>
+        <v>6163</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
@@ -1335,32 +1331,32 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>6163</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>6164</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>6165</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>6166</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>6167</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>6168</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -1370,17 +1366,17 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>6169</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>6170</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>6171</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
@@ -1390,12 +1386,12 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>6172</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>6173</v>
+        <v>6174</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -1405,17 +1401,17 @@
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>6174</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>6175</v>
+        <v>6176</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>6176</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
@@ -1425,7 +1421,7 @@
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>6177</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
@@ -1435,12 +1431,12 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>6178</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>6179</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -1450,12 +1446,12 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>6180</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>6181</v>
+        <v>6182</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
@@ -1465,7 +1461,7 @@
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>6182</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
@@ -1475,17 +1471,17 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>6183</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>6184</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>6185</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
@@ -1495,7 +1491,7 @@
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>6186</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
@@ -1505,22 +1501,22 @@
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>6187</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>6188</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>6189</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>6190</v>
+        <v>6191</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
@@ -1530,17 +1526,17 @@
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>6191</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>6192</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>6193</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
@@ -1550,17 +1546,17 @@
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>6194</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>6195</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>6196</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
@@ -1570,12 +1566,12 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>6197</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>6198</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
@@ -1585,17 +1581,17 @@
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>6199</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>6200</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>6201</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
@@ -1605,7 +1601,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>6202</v>
+        <v>6203</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
@@ -1615,7 +1611,7 @@
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>6203</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -1625,7 +1621,7 @@
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>6204</v>
+        <v>6205</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
@@ -1635,22 +1631,22 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>6205</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>6206</v>
+        <v>6207</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>6207</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>6208</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -1660,7 +1656,7 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>6209</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
@@ -1670,7 +1666,7 @@
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>6210</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
@@ -1680,42 +1676,42 @@
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>6211</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>6212</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>6213</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>6214</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>6215</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>6216</v>
+        <v>6217</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>6217</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>6218</v>
+        <v>6219</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -1725,12 +1721,12 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>6219</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>6220</v>
+        <v>6221</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
@@ -1740,22 +1736,22 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>6221</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>6222</v>
+        <v>6223</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>6223</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>6224</v>
+        <v>6225</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
@@ -1765,17 +1761,17 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>6225</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>6226</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>6227</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -1785,12 +1781,12 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>6228</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>6229</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
@@ -1800,22 +1796,22 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>6230</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>6231</v>
+        <v>6232</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>6232</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>6233</v>
+        <v>6234</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
@@ -1825,27 +1821,27 @@
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>6234</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>6235</v>
+        <v>6236</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>6236</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>6237</v>
+        <v>6238</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>6238</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
@@ -1855,12 +1851,12 @@
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>6239</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>6240</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
@@ -1870,12 +1866,12 @@
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>6241</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>6242</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -1885,12 +1881,12 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6243</v>
+        <v>6244</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>6244</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
@@ -1900,7 +1896,7 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>6245</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
@@ -1910,12 +1906,12 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>6246</v>
+        <v>6247</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>6247</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
@@ -1925,17 +1921,17 @@
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>6248</v>
+        <v>6249</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>6249</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6250</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -1945,7 +1941,7 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>6251</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
@@ -1955,27 +1951,27 @@
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>6252</v>
+        <v>6253</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>6253</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>6254</v>
+        <v>6255</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6255</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>6256</v>
+        <v>6257</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
@@ -1985,7 +1981,7 @@
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>6257</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
@@ -1995,27 +1991,27 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6258</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>6259</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>6260</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>6261</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6262</v>
+        <v>6263</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
@@ -2025,7 +2021,7 @@
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>6263</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
@@ -2035,12 +2031,12 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>6264</v>
+        <v>6265</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>6265</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -2050,7 +2046,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>6266</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -2060,7 +2056,7 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>6267</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
@@ -2070,12 +2066,12 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>6268</v>
+        <v>6269</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>6269</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
@@ -2085,17 +2081,17 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6270</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>6271</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>6272</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
@@ -2105,17 +2101,17 @@
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>6273</v>
+        <v>6274</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>6274</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>6275</v>
+        <v>6276</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -2125,7 +2121,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>6276</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -2135,22 +2131,22 @@
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>6277</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>6278</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>6279</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>6280</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
@@ -2160,12 +2156,12 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>6281</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>6282</v>
+        <v>6283</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
@@ -2175,7 +2171,7 @@
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>6283</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
@@ -2185,17 +2181,17 @@
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6284</v>
+        <v>6285</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>6285</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>6286</v>
+        <v>6287</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
@@ -2205,12 +2201,12 @@
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6287</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6288</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
@@ -2220,17 +2216,17 @@
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>6289</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>6290</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>6291</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
@@ -2240,27 +2236,27 @@
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>6292</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>6293</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>6294</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>6295</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6296</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
@@ -2270,72 +2266,72 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6297</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>6298</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>6299</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>6300</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>6301</v>
+        <v>6302</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>6302</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>6303</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>6304</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6305</v>
+        <v>6306</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6306</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>6307</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>6308</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>6309</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>6310</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
@@ -2345,17 +2341,17 @@
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>6311</v>
+        <v>6312</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6312</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>6313</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
@@ -2365,12 +2361,12 @@
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>6314</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6315</v>
+        <v>6316</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
@@ -2380,7 +2376,7 @@
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>6316</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
@@ -2390,7 +2386,7 @@
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>6317</v>
+        <v>6318</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
@@ -2400,7 +2396,7 @@
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>6318</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
@@ -2410,7 +2406,7 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>6319</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
@@ -2420,7 +2416,7 @@
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>6320</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -2430,12 +2426,12 @@
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>6321</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>6322</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
@@ -2445,7 +2441,7 @@
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>6323</v>
+        <v>6324</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
@@ -2455,7 +2451,7 @@
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>6324</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
@@ -2465,7 +2461,7 @@
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>6325</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
@@ -2475,12 +2471,12 @@
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>6326</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>6327</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
@@ -2490,17 +2486,17 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>6328</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>6329</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>6330</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
@@ -2510,12 +2506,12 @@
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>6331</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>6332</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
@@ -2525,42 +2521,42 @@
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>6333</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>6334</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>6335</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>6336</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>6337</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>6338</v>
+        <v>6339</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>6339</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>6340</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
@@ -2570,7 +2566,7 @@
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>6341</v>
+        <v>6342</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
@@ -2580,7 +2576,7 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>6342</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
@@ -2590,27 +2586,27 @@
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>6343</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>6344</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>6345</v>
+        <v>6346</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>6346</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>6347</v>
+        <v>6348</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
@@ -2620,7 +2616,7 @@
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>6348</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -2630,12 +2626,12 @@
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>6349</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>6350</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
@@ -2645,52 +2641,52 @@
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>6351</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>6352</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>6353</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>6354</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>6355</v>
+        <v>6356</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>6356</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>6357</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>6358</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>6359</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>6360</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
@@ -2700,17 +2696,17 @@
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>6361</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>6362</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>6363</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
@@ -2720,7 +2716,7 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>6364</v>
+        <v>6365</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
@@ -2730,17 +2726,17 @@
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>6365</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>6366</v>
+        <v>6367</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>6367</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
@@ -2750,47 +2746,47 @@
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>6368</v>
+        <v>6369</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>6369</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>6370</v>
+        <v>6371</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>6371</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>6372</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>6373</v>
+        <v>6374</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>6374</v>
+        <v>6375</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>6375</v>
+        <v>6376</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>6376</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
@@ -2800,17 +2796,17 @@
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>6377</v>
+        <v>6378</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>6378</v>
+        <v>6379</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>6379</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
@@ -2820,7 +2816,7 @@
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>6380</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
@@ -2830,22 +2826,22 @@
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>6381</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>6382</v>
+        <v>6383</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>6383</v>
+        <v>6384</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>6384</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -2855,7 +2851,7 @@
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>6385</v>
+        <v>6386</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
@@ -2865,7 +2861,7 @@
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>6386</v>
+        <v>6387</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
@@ -2875,12 +2871,12 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>6387</v>
+        <v>6388</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>6388</v>
+        <v>6389</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
@@ -2890,12 +2886,12 @@
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>6389</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>6390</v>
+        <v>6391</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
@@ -2905,17 +2901,17 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>6391</v>
+        <v>6392</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>6392</v>
+        <v>6393</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>6393</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
@@ -2925,12 +2921,12 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>6394</v>
+        <v>6395</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>6395</v>
+        <v>6396</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
@@ -2940,17 +2936,17 @@
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>6396</v>
+        <v>6397</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>6397</v>
+        <v>6398</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>6398</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
@@ -2960,12 +2956,12 @@
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>6399</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>6400</v>
+        <v>6401</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
@@ -2975,7 +2971,7 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>6401</v>
+        <v>6402</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
@@ -2985,11 +2981,6 @@
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>6402</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528">
         <v>6403</v>
       </c>
     </row>

--- a/dataset/sql_datasets/coach.xlsx
+++ b/dataset/sql_datasets/coach.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\Trabalho BD\Git\BD907-master.zip\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FC016-D073-4856-BED2-10B41547D8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28992" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,2646 +335,2646 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A527"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A528" sqref="A528:XFD544"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>6018</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6019</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6020</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6020</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6021</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6022</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6022</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6023</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6023</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6024</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6024</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6025</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6026</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>6027</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6028</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6029</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6030</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>6031</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>6032</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>6033</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6034</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>6035</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6035</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6036</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6036</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6037</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6037</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6038</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6038</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6039</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>6040</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>6040</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6041</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>6042</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6043</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6044</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6044</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>6045</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>6045</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6046</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6046</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>6047</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>6048</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6049</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>6050</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>6051</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>6051</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>6052</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6052</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6053</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6054</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>6055</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6056</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6057</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>6058</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>6058</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>6059</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6060</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>6061</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>6062</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>6062</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6063</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6064</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6065</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6065</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6066</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6067</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6067</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6068</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6069</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6070</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>6071</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>6071</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>6072</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>6073</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>6073</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>6074</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>6075</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>6076</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>6076</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6077</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>6077</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>6078</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>6079</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>6080</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>6081</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>6081</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>6082</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>6082</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>6083</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>6084</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6084</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>6085</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>6086</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>6086</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>6087</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6088</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>6089</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>6090</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>6090</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>6091</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>6092</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>6092</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>6093</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>6094</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>6095</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>6096</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>6097</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>6098</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6099</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>6100</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>6101</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>6102</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>6102</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>6103</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>6104</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>6105</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>6105</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>6106</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>6107</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>6107</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>6108</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>6108</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>6109</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>6110</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>6111</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>6112</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>6113</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>6113</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>6114</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>6114</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>6115</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>6115</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>6116</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>6117</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>6118</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>6118</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>6119</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>6120</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>6121</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>6121</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>6122</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>6123</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>6124</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>6124</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6125</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6125</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6126</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6127</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6128</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6129</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6130</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6131</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6131</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6132</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6133</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6134</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6135</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>6136</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>6137</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>6137</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>6138</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>6138</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>6139</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>6140</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>6141</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>6142</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>6142</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>6143</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>6144</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>6144</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>6145</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>6146</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>6146</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6147</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6148</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6149</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6149</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6150</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6151</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6152</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6152</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6153</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6154</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6154</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6155</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6156</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6157</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6158</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6159</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6160</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6161</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6162</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6162</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>6163</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>6163</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>6164</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>6165</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>6166</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>6167</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>6168</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>6169</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>6169</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>6170</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>6171</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>6172</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>6172</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>6173</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>6174</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>6174</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>6175</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>6176</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>6177</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>6177</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>6178</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>6178</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>6179</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>6180</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>6180</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>6181</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>6182</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>6182</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6183</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6183</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6184</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6185</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6186</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>6186</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6187</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>6187</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6188</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>6189</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>6190</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>6191</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>6191</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>6192</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>6193</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>6194</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>6194</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>6195</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>6196</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>6197</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>6197</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>6198</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>6199</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>6199</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>6200</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>6201</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>6202</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>6202</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>6203</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>6203</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>6204</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>6204</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>6205</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>6205</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>6206</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>6207</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>6208</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>6209</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>6209</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>6210</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>6210</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>6211</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>6211</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>6212</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>6213</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>6214</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>6215</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>6216</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>6217</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>6218</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>6219</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>6219</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>6220</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>6221</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>6221</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>6222</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>6223</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>6224</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>6225</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>6225</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>6226</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>6227</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>6228</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>6228</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>6229</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>6230</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>6230</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>6231</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>6232</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>6233</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>6234</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>6234</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>6235</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>6236</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>6237</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>6238</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>6239</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>6239</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>6240</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>6241</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>6241</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>6242</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>6243</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>6243</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>6244</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>6245</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>6245</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>6246</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>6246</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>6247</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>6248</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>6248</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>6249</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>6250</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>6251</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>6251</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>6252</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>6252</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>6253</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>6254</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>6255</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>6256</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>6257</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>6257</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>6258</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>6258</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>6259</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>6260</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>6261</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>6262</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>6263</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>6263</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>6264</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>6264</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>6265</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>6266</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>6266</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>6267</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>6267</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>6268</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>6268</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>6269</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>6270</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>6270</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>6271</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>6272</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>6273</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>6273</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>6274</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>6275</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>6276</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>6276</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>6277</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>6277</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>6278</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>6279</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>6280</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>6281</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>6281</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>6282</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>6283</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>6283</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>6284</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>6284</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>6285</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>6286</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>6287</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>6287</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>6288</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>6289</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>6289</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>6290</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>6291</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>6292</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>6292</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>6293</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>6294</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>6295</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>6296</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>6297</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>6297</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>6298</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>6299</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>6300</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>6301</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>6302</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>6303</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>6304</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>6305</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>6306</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>6307</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>6308</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>6309</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>6310</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>6311</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>6311</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>6312</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>6313</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>6314</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>6314</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>6315</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>6316</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>6316</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>6317</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>6317</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>6318</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>6318</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>6319</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>6319</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>6320</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>6320</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>6321</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>6321</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>6322</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>6323</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>6323</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>6324</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>6324</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>6325</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>6325</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>6326</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>6326</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>6327</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>6328</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>6328</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>6329</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>6330</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>6331</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>6331</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>6332</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>6333</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>6333</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>6334</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>6335</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>6336</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>6337</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>6338</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>6339</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>6340</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>6341</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>6341</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>6342</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>6342</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>6343</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>6343</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>6344</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>6345</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>6346</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>6347</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>6348</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>6348</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>6349</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>6349</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>6350</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>6351</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>6351</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>6352</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>6353</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>6354</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>6355</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>6356</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>6357</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>6358</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>6359</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>6360</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>6361</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>6361</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>6362</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>6363</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>6364</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>6364</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>6365</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>6365</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>6366</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>6367</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>6368</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>6368</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>6369</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>6370</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>6371</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>6372</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>6373</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>6374</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>6375</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>6376</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>6377</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>6377</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>6378</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>6379</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>6380</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>6380</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>6381</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>6381</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>6382</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>6383</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>6384</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>6385</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>6385</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>6386</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>6386</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>6387</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>6387</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>6388</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>6389</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>6389</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>6390</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>6391</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>6391</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>6392</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>6393</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>6394</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>6394</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>6395</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>6396</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>6396</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>6397</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>6398</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>6399</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>6399</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>6400</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>6401</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>6401</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>6402</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>6402</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>6403</v>
       </c>
